--- a/original-excel.xlsx
+++ b/original-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raninagib/Documents/PersonalProjects/my-excel-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC4AA5E-0C78-A24D-A1F8-3EAD7934B87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D56D4-7F2F-E34E-8A86-F1F739B37977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24300" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{A0810D55-C870-7240-BE20-F45419ECC117}"/>
   </bookViews>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,10 +683,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/original-excel.xlsx
+++ b/original-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raninagib/Documents/PersonalProjects/my-excel-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D56D4-7F2F-E34E-8A86-F1F739B37977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8488583E-BCC9-8848-B4F6-9D76F11C2076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24300" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{A0810D55-C870-7240-BE20-F45419ECC117}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>New branch change</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA34BA-CEDB-EE48-89AE-6C50EE6C3AC7}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,6 +692,11 @@
         <v>77</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/original-excel.xlsx
+++ b/original-excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raninagib/Documents/PersonalProjects/my-excel-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079D56D4-7F2F-E34E-8A86-F1F739B37977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528ABE13-DB89-E644-BD6C-DB6790C43D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24300" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{A0810D55-C870-7240-BE20-F45419ECC117}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>master branch change</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABA34BA-CEDB-EE48-89AE-6C50EE6C3AC7}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,6 +692,11 @@
         <v>77</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
